--- a/biology/Botanique/Johann_Eberhard_Jungblut/Johann_Eberhard_Jungblut.xlsx
+++ b/biology/Botanique/Johann_Eberhard_Jungblut/Johann_Eberhard_Jungblut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Eberhard Jungblut, né le 18 octobre 1722 à Luxembourg, décédé le 7 juillet 1795 à Prinzendorf an der Zaya, surnommé le « prêtre des pommes de terre », est un prêtre luxembourgeois qui s'est illustré dans le Weinviertel (littéralement « quartier vinicole ») du nord de la Basse-Autriche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Eberhard Jungblut, né le 18 octobre 1722 à Luxembourg, décédé le 7 juillet 1795 à Prinzendorf an der Zaya, surnommé le « prêtre des pommes de terre », est un prêtre luxembourgeois qui s'est illustré dans le Weinviertel (littéralement « quartier vinicole ») du nord de la Basse-Autriche.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Eberhard Jungblut a fait ses études à Trèves et a reçu son ordination sacerdotale en 1757 à Gorizia, ville italienne qui appartenait à l'époque à l'Autriche.
-En 1759, il est embauché comme collaborateur (chapelain) à Wilfersdorf (Basse-Autriche) et devient, en 1760, curé dans les environs de Prinzendorf an der Zaya[2]. 
-Selon d'autres sources, Johann Eberhard Jungblut aurait été collaborateur à Wilfersdorf dans les années 1758-1760 et ne serait venu à Prinzendorf qu'en 1761[3]. 
+En 1759, il est embauché comme collaborateur (chapelain) à Wilfersdorf (Basse-Autriche) et devient, en 1760, curé dans les environs de Prinzendorf an der Zaya. 
+Selon d'autres sources, Johann Eberhard Jungblut aurait été collaborateur à Wilfersdorf dans les années 1758-1760 et ne serait venu à Prinzendorf qu'en 1761. 
 Il y a consensus sur le fait qu'il a introduit la pomme de terre à Prinzendorf en 1761, et donné ainsi l'impulsion à cette culture en Basse-Autriche.
 On suppose que les tubercules provenaient de son pays natal. L'ancien duché de Luxembourg faisait alors partie des Pays-Bas autrichiens, si bien que Jungblut est appelé à tort le « Hollandais » dans l'histoire locale. Ses efforts pour la naturalisation et la diffusion de la pomme de terre lui ont valu le surnom de « prêtre des pommes de terre ».
-Son successeur, le père Franz Xaver Elsner[4], a érigé en 1834 un monument en son honneur à l'arrière de l'église de Prinzendorf.
-Le musée de la pomme de terre de Prinzendorf (Erdäpfelmuseum Prinzendorf), fondé en 1973, présente une exposition permanente pour entretenir la mémoire du « prêtre des pommes de terre »[5].
+Son successeur, le père Franz Xaver Elsner, a érigé en 1834 un monument en son honneur à l'arrière de l'église de Prinzendorf.
+Le musée de la pomme de terre de Prinzendorf (Erdäpfelmuseum Prinzendorf), fondé en 1973, présente une exposition permanente pour entretenir la mémoire du « prêtre des pommes de terre ».
 </t>
         </is>
       </c>
